--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.3574043333333</v>
+        <v>319.073924</v>
       </c>
       <c r="H2">
-        <v>424.072213</v>
+        <v>957.221772</v>
       </c>
       <c r="I2">
-        <v>0.4954750229273863</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="J2">
-        <v>0.4954750229273862</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N2">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O2">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P2">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q2">
-        <v>10587.01590080989</v>
+        <v>31.38017591957733</v>
       </c>
       <c r="R2">
-        <v>95283.14310728904</v>
+        <v>282.421583276196</v>
       </c>
       <c r="S2">
-        <v>0.3300172495502968</v>
+        <v>0.1924610978181762</v>
       </c>
       <c r="T2">
-        <v>0.3300172495502968</v>
+        <v>0.1924610978181763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.3574043333333</v>
+        <v>319.073924</v>
       </c>
       <c r="H3">
-        <v>424.072213</v>
+        <v>957.221772</v>
       </c>
       <c r="I3">
-        <v>0.4954750229273863</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="J3">
-        <v>0.4954750229273862</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N3">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O3">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P3">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q3">
-        <v>5307.916722664751</v>
+        <v>79.95365023389466</v>
       </c>
       <c r="R3">
-        <v>47771.25050398274</v>
+        <v>719.582852105052</v>
       </c>
       <c r="S3">
-        <v>0.1654577733770895</v>
+        <v>0.4903722445031187</v>
       </c>
       <c r="T3">
-        <v>0.1654577733770895</v>
+        <v>0.4903722445031187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>140.4344916666666</v>
+        <v>140.4344916666667</v>
       </c>
       <c r="H4">
-        <v>421.3034749999999</v>
+        <v>421.303475</v>
       </c>
       <c r="I4">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="J4">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N4">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O4">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P4">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q4">
-        <v>10517.89400993237</v>
+        <v>13.81140457493611</v>
       </c>
       <c r="R4">
-        <v>94661.04608939131</v>
+        <v>124.302641174425</v>
       </c>
       <c r="S4">
-        <v>0.3278625898685849</v>
+        <v>0.08470819582769851</v>
       </c>
       <c r="T4">
-        <v>0.327862589868585</v>
+        <v>0.08470819582769852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.4344916666666</v>
+        <v>140.4344916666667</v>
       </c>
       <c r="H5">
-        <v>421.3034749999999</v>
+        <v>421.303475</v>
       </c>
       <c r="I5">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="J5">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N5">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O5">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P5">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q5">
-        <v>5273.261703353504</v>
+        <v>35.19012173333056</v>
       </c>
       <c r="R5">
-        <v>47459.35533018154</v>
+        <v>316.711095599975</v>
       </c>
       <c r="S5">
-        <v>0.1643775110762333</v>
+        <v>0.2158282821138272</v>
       </c>
       <c r="T5">
-        <v>0.1643775110762333</v>
+        <v>0.2158282821138272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.255982</v>
+        <v>7.479044333333333</v>
       </c>
       <c r="H6">
-        <v>9.767946</v>
+        <v>22.437133</v>
       </c>
       <c r="I6">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="J6">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N6">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O6">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P6">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q6">
-        <v>243.8579950539047</v>
+        <v>0.7355465590798889</v>
       </c>
       <c r="R6">
-        <v>2194.721955485142</v>
+        <v>6.619919031719</v>
       </c>
       <c r="S6">
-        <v>0.007601513548532883</v>
+        <v>0.004511258911349156</v>
       </c>
       <c r="T6">
-        <v>0.007601513548532885</v>
+        <v>0.004511258911349157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.255982</v>
+        <v>7.479044333333333</v>
       </c>
       <c r="H7">
-        <v>9.767946</v>
+        <v>22.437133</v>
       </c>
       <c r="I7">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="J7">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N7">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O7">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P7">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q7">
-        <v>122.2608846561853</v>
+        <v>1.874101422061444</v>
       </c>
       <c r="R7">
-        <v>1100.347961905668</v>
+        <v>16.866912798553</v>
       </c>
       <c r="S7">
-        <v>0.00381110232192376</v>
+        <v>0.01149425095757746</v>
       </c>
       <c r="T7">
-        <v>0.003811102321923761</v>
+        <v>0.01149425095757746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.248853</v>
+        <v>0.2918953333333333</v>
       </c>
       <c r="H8">
-        <v>0.7465590000000001</v>
+        <v>0.875686</v>
       </c>
       <c r="I8">
-        <v>0.0008722602573388759</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="J8">
-        <v>0.0008722602573388758</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N8">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O8">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P8">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q8">
-        <v>18.637938920777</v>
+        <v>0.02870722494422222</v>
       </c>
       <c r="R8">
-        <v>167.741450286993</v>
+        <v>0.258365024498</v>
       </c>
       <c r="S8">
-        <v>0.0005809797016976918</v>
+        <v>0.0001760673376158931</v>
       </c>
       <c r="T8">
-        <v>0.0005809797016976918</v>
+        <v>0.0001760673376158932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.248853</v>
+        <v>0.2918953333333333</v>
       </c>
       <c r="H9">
-        <v>0.7465590000000001</v>
+        <v>0.875686</v>
       </c>
       <c r="I9">
-        <v>0.0008722602573388759</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="J9">
-        <v>0.0008722602573388758</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N9">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O9">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P9">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q9">
-        <v>9.344335419958</v>
+        <v>0.07314322992511112</v>
       </c>
       <c r="R9">
-        <v>84.099018779622</v>
+        <v>0.658289069326</v>
       </c>
       <c r="S9">
-        <v>0.000291280555641184</v>
+        <v>0.0004486025306369212</v>
       </c>
       <c r="T9">
-        <v>0.000291280555641184</v>
+        <v>0.0004486025306369212</v>
       </c>
     </row>
   </sheetData>
